--- a/data/trans_bre/P24_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P24_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,84</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>762,11%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>761,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,72%</t>
+          <t>-15,84%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>211,89%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-10,1%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>218,64%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>39,76%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-24,76%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 7,89</t>
+          <t>1,53; 8,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 5,19</t>
+          <t>-4,01; 2,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 3,52</t>
+          <t>-0,87; 3,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 2,56</t>
+          <t>-4,04; 2,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 7,63</t>
+          <t>-1,01; 6,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>-4,19; 8,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,31; 5,18</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-61,67; 390,3</t>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-63,06; 450,36</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-73,14; 252,97</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-2,3</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>35,48%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-54,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>59,52%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-40,85%</t>
+          <t>-52,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-51,64%</t>
+          <t>67,61%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-41,81%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-9,01%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-51,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,59%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,91</t>
+          <t>-2,21; 4,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 0,63</t>
+          <t>-7,63; 1,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 7,02</t>
+          <t>-1,61; 6,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 1,57</t>
+          <t>-6,44; 1,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 0,99</t>
+          <t>-8,01; 4,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,04; 475,52</t>
+          <t>-7,65; 1,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-88,48; 48,31</t>
+          <t>-5,67; 7,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,6; 366,91</t>
+          <t>-64,39; 527,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,73; 73,24</t>
+          <t>-89,76; 65,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-93,78; 94,53</t>
+          <t>-36,65; 398,92</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-84,51; 64,65</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-64,0; 117,65</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-90,93; 148,72</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-62,63; 270,2</t>
         </is>
       </c>
     </row>
@@ -881,47 +993,67 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3,34</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>36,14%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,04%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,75%</t>
+          <t>-2,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>57,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-10,81%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>42,93%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>102,28%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-4,93%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 5,24</t>
+          <t>-2,2; 5,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,43</t>
+          <t>-4,05; 3,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 5,75</t>
+          <t>-1,15; 5,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 2,57</t>
+          <t>-3,21; 2,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 7,42</t>
+          <t>-2,37; 7,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,88; 205,56</t>
+          <t>-0,89; 6,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 137,25</t>
+          <t>-5,3; 3,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 235,21</t>
+          <t>-41,3; 212,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-59,83; 108,28</t>
+          <t>-57,92; 120,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-20,97; 476,73</t>
+          <t>-23,73; 247,1</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-57,88; 106,06</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-33,76; 188,74</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-24,23; 393,91</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-59,23; 102,94</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,17</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>39,82%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>8,58%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>61,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>55,55%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 7,14</t>
+          <t>-4,51; 7,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 4,38</t>
+          <t>-6,77; 4,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 5,05</t>
+          <t>-3,87; 5,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 7,58</t>
+          <t>-0,62; 7,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 10,73</t>
+          <t>-3,05; 8,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,65; 193,32</t>
+          <t>-0,77; 11,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-62,74; 137,74</t>
+          <t>-3,49; 9,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,0; 88,23</t>
+          <t>-47,82; 195,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 216,35</t>
+          <t>-61,95; 132,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 163,86</t>
+          <t>-36,1; 83,82</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-11,2; 214,81</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-24,68; 115,18</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; 177,8</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-24,08; 101,29</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-3,49</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>3,26</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>36,81%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>74,79%</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-15,6%</t>
+          <t>36,82%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>60,6%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>-18,88%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-20,07%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,69</t>
+          <t>-1,7; 3,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 8,82</t>
+          <t>-1,21; 8,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 4,08</t>
+          <t>-7,81; 2,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 5,6</t>
+          <t>-5,2; 6,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 10,68</t>
+          <t>-11,61; 4,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-70,62; 480,11</t>
+          <t>-4,36; 10,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 286,98</t>
+          <t>-2,98; 12,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,36; 51,45</t>
+          <t>-64,83; 443,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-37,45; 77,78</t>
+          <t>-21,17; 256,43</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 108,54</t>
+          <t>-54,76; 36,93</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-41,27; 79,99</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-53,38; 30,64</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-24,71; 109,63</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-15,06; 99,78</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1473,67 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>4,43</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6,25</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11,55</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>4,23</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,33</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>112,37%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>114,16%</t>
+          <t>12,73</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>112,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>71,27%</t>
+          <t>126,62%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>53,57%</t>
+          <t>59,5%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>80,42%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>88,31%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>53,39%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>64,41%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 8,74</t>
+          <t>0,79; 9,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 13,21</t>
+          <t>1,86; 14,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 9,48</t>
+          <t>-1,33; 10,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 12,14</t>
+          <t>-0,07; 14,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 12,46</t>
+          <t>1,88; 22,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 360,83</t>
+          <t>-3,23; 11,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 305,27</t>
+          <t>2,81; 23,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 201,62</t>
+          <t>0,2; 374,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 221,53</t>
+          <t>11,29; 346,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 233,63</t>
+          <t>-18,13; 202,68</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 276,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6,0; 229,31</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-36,39; 261,34</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>12,57; 163,64</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>3,25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>2,95</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>76,06%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,65%</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>76,03%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>41,46%</t>
+          <t>31,53%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>27,03%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>35,9%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>41,45%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>40,49%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,18</t>
+          <t>0,91; 4,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,88</t>
+          <t>-0,47; 3,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,73</t>
+          <t>-0,07; 3,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,28</t>
+          <t>-0,24; 3,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,67</t>
+          <t>0,28; 6,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,29; 156,98</t>
+          <t>0,46; 5,44</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 94,31</t>
+          <t>1,41; 7,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 75,88</t>
+          <t>18,44; 152,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 67,4</t>
+          <t>-7,99; 95,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,75; 92,57</t>
+          <t>-1,27; 70,81</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 72,46</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 81,4</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 93,35</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>11,0; 77,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
